--- a/Mifos Automation Excels/Client/775-RBI-EI-DB-DL-REC-NON-RNI-CTRFD-SAR-MD-TR-1-Late Repayment-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/775-RBI-EI-DB-DL-REC-NON-RNI-CTRFD-SAR-MD-TR-1-Late Repayment-Newcreateloan.xlsx
@@ -226,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -255,17 +255,8 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -993,10 +984,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD15"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1006,7 +997,7 @@
     <col min="5" max="6" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -1026,7 +1017,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="11">
         <v>10000</v>
       </c>
@@ -1044,7 +1035,7 @@
         <v>1581.47</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <v>685.07</v>
       </c>
@@ -1064,7 +1055,7 @@
         <v>193.97</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
         <v>0</v>
       </c>
@@ -1084,7 +1075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <v>0</v>
       </c>
@@ -1103,27 +1094,6 @@
       <c r="F5" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="10"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1132,10 +1102,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="D19:E19"/>
+    <sheetView topLeftCell="F2" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1196,7 +1166,7 @@
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="12"/>
       <c r="B2" s="12"/>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <v>42005</v>
       </c>
       <c r="D2" s="12"/>
@@ -1232,7 +1202,7 @@
       <c r="B3" s="12">
         <v>31</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>42036</v>
       </c>
       <c r="D3" s="12"/>
@@ -1280,7 +1250,7 @@
       <c r="B4" s="12">
         <v>28</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <v>42064</v>
       </c>
       <c r="D4" s="12"/>
@@ -1328,7 +1298,7 @@
       <c r="B5" s="12">
         <v>31</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <v>42095</v>
       </c>
       <c r="D5" s="12"/>
@@ -1376,7 +1346,7 @@
       <c r="B6" s="12">
         <v>30</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <v>42125</v>
       </c>
       <c r="D6" s="12"/>
@@ -1424,7 +1394,7 @@
       <c r="B7" s="12">
         <v>31</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <v>42156</v>
       </c>
       <c r="D7" s="12"/>
@@ -1472,7 +1442,7 @@
       <c r="B8" s="12">
         <v>30</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="14">
         <v>42186</v>
       </c>
       <c r="D8" s="12"/>
@@ -1520,7 +1490,7 @@
       <c r="B9" s="12">
         <v>31</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="14">
         <v>42217</v>
       </c>
       <c r="D9" s="12"/>
@@ -1568,7 +1538,7 @@
       <c r="B10" s="12">
         <v>31</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="14">
         <v>42248</v>
       </c>
       <c r="D10" s="12"/>
@@ -1616,7 +1586,7 @@
       <c r="B11" s="12">
         <v>30</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="14">
         <v>42278</v>
       </c>
       <c r="D11" s="12"/>
@@ -1664,7 +1634,7 @@
       <c r="B12" s="12">
         <v>31</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="14">
         <v>42309</v>
       </c>
       <c r="D12" s="12"/>
@@ -1712,7 +1682,7 @@
       <c r="B13" s="12">
         <v>30</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="14">
         <v>42339</v>
       </c>
       <c r="D13" s="12"/>
@@ -1760,7 +1730,7 @@
       <c r="B14" s="12">
         <v>31</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="14">
         <v>42370</v>
       </c>
       <c r="D14" s="12"/>
@@ -1801,27 +1771,7 @@
         <v>920.15</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="P15" s="14"/>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C15:E15"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/Mifos Automation Excels/Client/775-RBI-EI-DB-DL-REC-NON-RNI-CTRFD-SAR-MD-TR-1-Late Repayment-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/775-RBI-EI-DB-DL-REC-NON-RNI-CTRFD-SAR-MD-TR-1-Late Repayment-Newcreateloan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="9" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="33">
   <si>
     <t>click</t>
   </si>
@@ -31,9 +31,6 @@
     <t>disbursementon</t>
   </si>
   <si>
-    <t>submittedon</t>
-  </si>
-  <si>
     <t>approve</t>
   </si>
   <si>
@@ -46,6 +43,9 @@
     <t>disburse</t>
   </si>
   <si>
+    <t>heading</t>
+  </si>
+  <si>
     <t>maximumallowedaoutstandingbalance</t>
   </si>
   <si>
@@ -67,9 +67,6 @@
     <t>Tranche Loan</t>
   </si>
   <si>
-    <t>submitbutton</t>
-  </si>
-  <si>
     <t>loantrancheclick</t>
   </si>
   <si>
@@ -88,61 +85,37 @@
     <t>moratoriumoninterestpayment</t>
   </si>
   <si>
-    <t>Original</t>
-  </si>
-  <si>
-    <t>Paid</t>
-  </si>
-  <si>
-    <t>Waived</t>
-  </si>
-  <si>
-    <t>Written Off</t>
-  </si>
-  <si>
-    <t>Outstanding</t>
-  </si>
-  <si>
-    <t>Over Due</t>
-  </si>
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>Days</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Paid Date</t>
-  </si>
-  <si>
-    <t>Principal Due</t>
-  </si>
-  <si>
-    <t>Balance of Loan</t>
-  </si>
-  <si>
-    <t>Interest</t>
-  </si>
-  <si>
-    <t>Fees</t>
-  </si>
-  <si>
-    <t>Penalties</t>
-  </si>
-  <si>
-    <t>Due</t>
-  </si>
-  <si>
-    <t>In Advance</t>
-  </si>
-  <si>
-    <t>Late</t>
-  </si>
-  <si>
-    <t>775-RBI-EI-DB-DL-REC-NON-RNI-CTRFD-SAR-MD-TR-1-Late Repayment</t>
+    <t>775RBI-EI-DB-DL-REC-NON-RNI-CTRFD-SAR-MD-TR-1-Late Repayment</t>
+  </si>
+  <si>
+    <t>approveloan</t>
+  </si>
+  <si>
+    <t>disburseloan</t>
+  </si>
+  <si>
+    <t>clickonnewloan</t>
+  </si>
+  <si>
+    <t>submitteddateon</t>
+  </si>
+  <si>
+    <t>maximumallowedoutstandingbalance</t>
+  </si>
+  <si>
+    <t>submitloan</t>
+  </si>
+  <si>
+    <t>clickonapprove</t>
+  </si>
+  <si>
+    <t>submitapprove</t>
+  </si>
+  <si>
+    <t>clickondisburse</t>
+  </si>
+  <si>
+    <t>submitdisburse</t>
   </si>
 </sst>
 </file>
@@ -203,11 +176,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -217,17 +193,18 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,286 +491,6 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="95250" y="6153150"/>
-          <a:ext cx="9525" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 1" descr="https://secure.adnxs.com/seg?add=2735784&amp;t=2?"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9525" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 2" descr="https://secure.adnxs.com/seg?add=2735784&amp;t=2?"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9525" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 3" descr="https://secure.adnxs.com/seg?add=2735784&amp;t=2?"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="19050" y="0"/>
-          <a:ext cx="9525" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 4" descr="http://fp114.digitaloptout.com/acttr?p=YTIxNDQ4Nzg1NjZ9BohYE9sYS8No21fUjjen5BSqNleXWBKW6lASeRB%2BS%2FAIRM6QUsXgoMbirFvVAgJZpPMWKHrHtcvusGfRBaxlOKBiPo0l2IMnDdvDVl6Uk6kStHnC1CWwoQ7IyBRQCkfbTu6ome%2FdZSpgeB7lFOKF4ymMyhsOgZJBxsSC45Ph2A%3D%3D&amp;m=FP14_%3A_already-injected_%3A_FP39_%3A_FP14&amp;t=1429973261769"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="38100" y="0"/>
-          <a:ext cx="9525" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 5" descr="http://fp114.digitaloptout.com/acttr?p=YTIxNDQ4Nzg1NjZ9BohYE9sYS8No21fUjjen5BSqNleXWBKW6lASeRB%2BS%2FAIRM6QUsXgoMbirFvVAgJZpPMWKHrHtcvusGfRBaxlOKBiPo0l2IMnDdvDVl6Uk6kStHnC1CWwoQ7IyBRQCkfbTu6ome%2FdZSpgeB7lFOKF4ymMyhsOgZJBxsSC45Ph2A%3D%3D&amp;m=FP14_%3A_already-injected_%3A_FP39_%3A_FP14&amp;t=1429973261942"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="57150" y="0"/>
-          <a:ext cx="9525" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 6" descr="http://fp114.digitaloptout.com/acttr?p=YTIxNDQ4Nzg1NjZ9BohYE9sYS8No21fUjjen5BSqNleXWBKW6lASeRB%2BS%2FAIRM6QUsXgoMbirFvVAgJZpPMWKHrHtcvusGfRBaxlOKBiPo0l2IMnDdvDVl6Uk6kStHnC1CWwoQ7IyBRQCkfbTu6ome%2FdZSpgeB7lFOKF4ymMyhsOgZJBxsSC45Ph2A%3D%3D&amp;m=FP14_%3A_already-injected_%3A_FP39_%3A_FP14&amp;t=1429973261946"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="76200" y="0"/>
-          <a:ext cx="9525" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="fixStatusImg" descr="http://partners.cmptch.com/images/1x1.gif"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="95250" y="0"/>
           <a:ext cx="9525" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1094,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1108,7 +805,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1118,13 +815,13 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>41</v>
+      <c r="B2" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B3" s="3">
         <v>42005</v>
@@ -1139,19 +836,19 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
+      <c r="A5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="12">
+        <v>10000</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1163,7 +860,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="2">
@@ -1172,7 +869,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>14</v>
@@ -1180,15 +877,15 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="3">
         <v>42005</v>
@@ -1196,18 +893,34 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>8</v>
+        <v>30</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="3">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="3">
         <v>42005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1221,7 +934,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A2" sqref="A2:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1232,100 +945,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>28</v>
+      <c r="A1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="8">
+      <c r="A2" s="9">
         <v>10000</v>
       </c>
-      <c r="B2" s="9">
-        <v>0</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9">
-        <v>0</v>
-      </c>
-      <c r="E2" s="8">
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="9">
         <v>10000</v>
       </c>
       <c r="F2" s="10">
-        <v>1581.47</v>
+        <v>2367.27</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="9">
-        <v>685.07</v>
-      </c>
-      <c r="B3" s="9">
-        <v>0</v>
-      </c>
-      <c r="C3" s="9">
-        <v>0</v>
-      </c>
-      <c r="D3" s="9">
-        <v>0</v>
-      </c>
-      <c r="E3" s="9">
-        <v>685.07</v>
-      </c>
-      <c r="F3" s="9">
-        <v>193.97</v>
+      <c r="A3" s="4">
+        <v>710.36</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>710.36</v>
+      </c>
+      <c r="F3" s="4">
+        <v>295.89</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="9">
-        <v>0</v>
-      </c>
-      <c r="B4" s="9">
-        <v>0</v>
-      </c>
-      <c r="C4" s="9">
-        <v>0</v>
-      </c>
-      <c r="D4" s="9">
-        <v>0</v>
-      </c>
-      <c r="E4" s="9">
-        <v>0</v>
-      </c>
-      <c r="F4" s="9">
+      <c r="A4" s="4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="9">
-        <v>0</v>
-      </c>
-      <c r="B5" s="9">
-        <v>0</v>
-      </c>
-      <c r="C5" s="9">
-        <v>0</v>
-      </c>
-      <c r="D5" s="9">
-        <v>0</v>
-      </c>
-      <c r="E5" s="9">
-        <v>0</v>
-      </c>
-      <c r="F5" s="9">
+      <c r="A5" s="4">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1336,10 +1051,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1347,592 +1062,704 @@
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
+        <v>8</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
       <c r="C2" s="11">
         <v>42005</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="8">
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="9">
         <v>10000</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9">
-        <v>0</v>
-      </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9">
-        <v>0</v>
-      </c>
-      <c r="L2" s="9">
-        <v>0</v>
-      </c>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="9">
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0</v>
+      </c>
+      <c r="N2" s="4">
+        <v>0</v>
+      </c>
+      <c r="O2" s="4">
+        <v>0</v>
+      </c>
+      <c r="P2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="4">
         <v>31</v>
       </c>
       <c r="C3" s="11">
         <v>42036</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9">
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
         <v>785.8</v>
       </c>
       <c r="G3" s="10">
         <v>9214.2000000000007</v>
       </c>
-      <c r="H3" s="9">
-        <v>101.92</v>
-      </c>
-      <c r="I3" s="9">
-        <v>0</v>
-      </c>
-      <c r="J3" s="9">
-        <v>0</v>
-      </c>
-      <c r="K3" s="9">
-        <v>887.72</v>
-      </c>
-      <c r="L3" s="9">
-        <v>0</v>
-      </c>
-      <c r="M3" s="9">
-        <v>0</v>
-      </c>
-      <c r="N3" s="9">
-        <v>0</v>
-      </c>
-      <c r="O3" s="9">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="9">
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <v>785.8</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0</v>
+      </c>
+      <c r="N3" s="4">
+        <v>0</v>
+      </c>
+      <c r="O3" s="4">
+        <v>0</v>
+      </c>
+      <c r="P3" s="4">
+        <v>785.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="4">
         <v>28</v>
       </c>
       <c r="C4" s="11">
         <v>42064</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9">
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
         <v>795.67</v>
       </c>
       <c r="G4" s="10">
         <v>8418.5300000000007</v>
       </c>
-      <c r="H4" s="9">
-        <v>92.05</v>
-      </c>
-      <c r="I4" s="9">
-        <v>0</v>
-      </c>
-      <c r="J4" s="9">
-        <v>0</v>
-      </c>
-      <c r="K4" s="9">
-        <v>887.72</v>
-      </c>
-      <c r="L4" s="9">
-        <v>0</v>
-      </c>
-      <c r="M4" s="9">
-        <v>0</v>
-      </c>
-      <c r="N4" s="9">
-        <v>0</v>
-      </c>
-      <c r="O4" s="9">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="9">
+      <c r="H4" s="4">
+        <v>193.97</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <v>989.64</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="4">
+        <v>0</v>
+      </c>
+      <c r="P4" s="4">
+        <v>989.64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="4">
         <v>31</v>
       </c>
       <c r="C5" s="11">
         <v>42095</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9">
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
         <v>785.8</v>
       </c>
       <c r="G5" s="10">
         <v>7632.73</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="4">
         <v>101.92</v>
       </c>
-      <c r="I5" s="9">
-        <v>0</v>
-      </c>
-      <c r="J5" s="9">
-        <v>0</v>
-      </c>
-      <c r="K5" s="9">
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
         <v>887.72</v>
       </c>
-      <c r="L5" s="9">
-        <v>0</v>
-      </c>
-      <c r="M5" s="9">
-        <v>0</v>
-      </c>
-      <c r="N5" s="9">
-        <v>0</v>
-      </c>
-      <c r="O5" s="9">
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0</v>
+      </c>
+      <c r="P5" s="4">
         <v>887.72</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="9">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="4">
         <v>30</v>
       </c>
       <c r="C6" s="11">
         <v>42125</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9">
-        <v>812.44</v>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>789.09</v>
       </c>
       <c r="G6" s="10">
-        <v>6820.29</v>
-      </c>
-      <c r="H6" s="9">
-        <v>75.28</v>
-      </c>
-      <c r="I6" s="9">
-        <v>0</v>
-      </c>
-      <c r="J6" s="9">
-        <v>0</v>
-      </c>
-      <c r="K6" s="9">
+        <v>6843.64</v>
+      </c>
+      <c r="H6" s="4">
+        <v>98.63</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
         <v>887.72</v>
       </c>
-      <c r="L6" s="9">
-        <v>0</v>
-      </c>
-      <c r="M6" s="9">
-        <v>0</v>
-      </c>
-      <c r="N6" s="9">
-        <v>0</v>
-      </c>
-      <c r="O6" s="9">
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4">
         <v>887.72</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="9">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="4">
         <v>31</v>
       </c>
       <c r="C7" s="11">
         <v>42156</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9">
-        <v>818.21</v>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>817.97</v>
       </c>
       <c r="G7" s="10">
-        <v>6002.08</v>
-      </c>
-      <c r="H7" s="9">
-        <v>69.510000000000005</v>
-      </c>
-      <c r="I7" s="9">
-        <v>0</v>
-      </c>
-      <c r="J7" s="9">
-        <v>0</v>
-      </c>
-      <c r="K7" s="9">
+        <v>6025.67</v>
+      </c>
+      <c r="H7" s="4">
+        <v>69.75</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
         <v>887.72</v>
       </c>
-      <c r="L7" s="9">
-        <v>0</v>
-      </c>
-      <c r="M7" s="9">
-        <v>0</v>
-      </c>
-      <c r="N7" s="9">
-        <v>0</v>
-      </c>
-      <c r="O7" s="9">
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0</v>
+      </c>
+      <c r="P7" s="4">
         <v>887.72</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="9">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="4">
         <v>30</v>
       </c>
       <c r="C8" s="11">
         <v>42186</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9">
-        <v>828.52</v>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>828.29</v>
       </c>
       <c r="G8" s="10">
-        <v>5173.5600000000004</v>
-      </c>
-      <c r="H8" s="9">
-        <v>59.2</v>
-      </c>
-      <c r="I8" s="9">
-        <v>0</v>
-      </c>
-      <c r="J8" s="9">
-        <v>0</v>
-      </c>
-      <c r="K8" s="9">
+        <v>5197.38</v>
+      </c>
+      <c r="H8" s="4">
+        <v>59.43</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
         <v>887.72</v>
       </c>
-      <c r="L8" s="9">
-        <v>0</v>
-      </c>
-      <c r="M8" s="9">
-        <v>0</v>
-      </c>
-      <c r="N8" s="9">
-        <v>0</v>
-      </c>
-      <c r="O8" s="9">
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0</v>
+      </c>
+      <c r="P8" s="4">
         <v>887.72</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="9">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="4">
         <v>31</v>
       </c>
       <c r="C9" s="11">
         <v>42217</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9">
-        <v>834.99</v>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>834.75</v>
       </c>
       <c r="G9" s="10">
-        <v>4338.57</v>
-      </c>
-      <c r="H9" s="9">
-        <v>52.73</v>
-      </c>
-      <c r="I9" s="9">
-        <v>0</v>
-      </c>
-      <c r="J9" s="9">
-        <v>0</v>
-      </c>
-      <c r="K9" s="9">
+        <v>4362.63</v>
+      </c>
+      <c r="H9" s="4">
+        <v>52.97</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
         <v>887.72</v>
       </c>
-      <c r="L9" s="9">
-        <v>0</v>
-      </c>
-      <c r="M9" s="9">
-        <v>0</v>
-      </c>
-      <c r="N9" s="9">
-        <v>0</v>
-      </c>
-      <c r="O9" s="9">
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0</v>
+      </c>
+      <c r="P9" s="4">
         <v>887.72</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="9">
-        <v>8</v>
-      </c>
-      <c r="B10" s="9">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4">
         <v>31</v>
       </c>
       <c r="C10" s="11">
         <v>42248</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9">
-        <v>843.5</v>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>843.26</v>
       </c>
       <c r="G10" s="10">
-        <v>3495.07</v>
-      </c>
-      <c r="H10" s="9">
-        <v>44.22</v>
-      </c>
-      <c r="I10" s="9">
-        <v>0</v>
-      </c>
-      <c r="J10" s="9">
-        <v>0</v>
-      </c>
-      <c r="K10" s="9">
+        <v>3519.37</v>
+      </c>
+      <c r="H10" s="4">
+        <v>44.46</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
         <v>887.72</v>
       </c>
-      <c r="L10" s="9">
-        <v>0</v>
-      </c>
-      <c r="M10" s="9">
-        <v>0</v>
-      </c>
-      <c r="N10" s="9">
-        <v>0</v>
-      </c>
-      <c r="O10" s="9">
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0</v>
+      </c>
+      <c r="P10" s="4">
         <v>887.72</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="9">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="4">
         <v>30</v>
       </c>
       <c r="C11" s="11">
         <v>42278</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9">
-        <v>853.25</v>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>853.01</v>
       </c>
       <c r="G11" s="10">
-        <v>2641.82</v>
-      </c>
-      <c r="H11" s="9">
-        <v>34.47</v>
-      </c>
-      <c r="I11" s="9">
-        <v>0</v>
-      </c>
-      <c r="J11" s="9">
-        <v>0</v>
-      </c>
-      <c r="K11" s="9">
+        <v>2666.36</v>
+      </c>
+      <c r="H11" s="4">
+        <v>34.71</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
         <v>887.72</v>
       </c>
-      <c r="L11" s="9">
-        <v>0</v>
-      </c>
-      <c r="M11" s="9">
-        <v>0</v>
-      </c>
-      <c r="N11" s="9">
-        <v>0</v>
-      </c>
-      <c r="O11" s="9">
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
+        <v>0</v>
+      </c>
+      <c r="N11" s="4">
+        <v>0</v>
+      </c>
+      <c r="O11" s="4">
+        <v>0</v>
+      </c>
+      <c r="P11" s="4">
         <v>887.72</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="9">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="4">
         <v>31</v>
       </c>
       <c r="C12" s="11">
         <v>42309</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9">
-        <v>860.8</v>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>860.55</v>
       </c>
       <c r="G12" s="10">
-        <v>1781.02</v>
-      </c>
-      <c r="H12" s="9">
-        <v>26.92</v>
-      </c>
-      <c r="I12" s="9">
-        <v>0</v>
-      </c>
-      <c r="J12" s="9">
-        <v>0</v>
-      </c>
-      <c r="K12" s="9">
+        <v>1805.81</v>
+      </c>
+      <c r="H12" s="4">
+        <v>27.17</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
         <v>887.72</v>
       </c>
-      <c r="L12" s="9">
-        <v>0</v>
-      </c>
-      <c r="M12" s="9">
-        <v>0</v>
-      </c>
-      <c r="N12" s="9">
-        <v>0</v>
-      </c>
-      <c r="O12" s="9">
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0</v>
+      </c>
+      <c r="P12" s="4">
         <v>887.72</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="9">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="4">
         <v>30</v>
       </c>
       <c r="C13" s="11">
         <v>42339</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9">
-        <v>870.15</v>
-      </c>
-      <c r="G13" s="9">
-        <v>910.87</v>
-      </c>
-      <c r="H13" s="9">
-        <v>17.57</v>
-      </c>
-      <c r="I13" s="9">
-        <v>0</v>
-      </c>
-      <c r="J13" s="9">
-        <v>0</v>
-      </c>
-      <c r="K13" s="9">
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>869.91</v>
+      </c>
+      <c r="G13" s="4">
+        <v>935.9</v>
+      </c>
+      <c r="H13" s="4">
+        <v>17.809999999999999</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
         <v>887.72</v>
       </c>
-      <c r="L13" s="9">
-        <v>0</v>
-      </c>
-      <c r="M13" s="9">
-        <v>0</v>
-      </c>
-      <c r="N13" s="9">
-        <v>0</v>
-      </c>
-      <c r="O13" s="9">
+      <c r="L13" s="4">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0</v>
+      </c>
+      <c r="P13" s="4">
         <v>887.72</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="9">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="4">
         <v>31</v>
       </c>
       <c r="C14" s="11">
         <v>42370</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9">
-        <v>910.87</v>
-      </c>
-      <c r="G14" s="9">
-        <v>0</v>
-      </c>
-      <c r="H14" s="9">
-        <v>9.2799999999999994</v>
-      </c>
-      <c r="I14" s="9">
-        <v>0</v>
-      </c>
-      <c r="J14" s="9">
-        <v>0</v>
-      </c>
-      <c r="K14" s="9">
-        <v>920.15</v>
-      </c>
-      <c r="L14" s="9">
-        <v>0</v>
-      </c>
-      <c r="M14" s="9">
-        <v>0</v>
-      </c>
-      <c r="N14" s="9">
-        <v>0</v>
-      </c>
-      <c r="O14" s="9">
-        <v>920.15</v>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>935.9</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>9.5399999999999991</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <v>945.44</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0</v>
+      </c>
+      <c r="P14" s="4">
+        <v>945.44</v>
       </c>
     </row>
   </sheetData>
@@ -1966,10 +1793,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1981,7 +1808,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="2">
@@ -1990,10 +1817,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2005,7 +1832,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="2">
@@ -2014,10 +1841,10 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -2029,7 +1856,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="2">
@@ -2041,12 +1868,12 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="3">
         <v>41974</v>
@@ -2066,7 +1893,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="2">
@@ -2075,7 +1902,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
@@ -2083,15 +1910,15 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="7">
+        <v>20</v>
+      </c>
+      <c r="B17" s="8">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="2">
         <v>1</v>
@@ -2099,10 +1926,10 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -2114,7 +1941,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="2">

--- a/Mifos Automation Excels/Client/775-RBI-EI-DB-DL-REC-NON-RNI-CTRFD-SAR-MD-TR-1-Late Repayment-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/775-RBI-EI-DB-DL-REC-NON-RNI-CTRFD-SAR-MD-TR-1-Late Repayment-Newcreateloan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="9" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
   <si>
     <t>click</t>
   </si>
@@ -85,9 +85,6 @@
     <t>moratoriumoninterestpayment</t>
   </si>
   <si>
-    <t>775RBI-EI-DB-DL-REC-NON-RNI-CTRFD-SAR-MD-TR-1-Late Repayment</t>
-  </si>
-  <si>
     <t>approveloan</t>
   </si>
   <si>
@@ -116,13 +113,61 @@
   </si>
   <si>
     <t>submitdisburse</t>
+  </si>
+  <si>
+    <t>Interest</t>
+  </si>
+  <si>
+    <t>Fees</t>
+  </si>
+  <si>
+    <t>Penalties</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Days</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Paid Date</t>
+  </si>
+  <si>
+    <t>Principal Due</t>
+  </si>
+  <si>
+    <t>Balance of Loan</t>
+  </si>
+  <si>
+    <t>Due</t>
+  </si>
+  <si>
+    <t>Paid</t>
+  </si>
+  <si>
+    <t>In Advance</t>
+  </si>
+  <si>
+    <t>Late</t>
+  </si>
+  <si>
+    <t>Outstanding</t>
+  </si>
+  <si>
+    <t>Heading</t>
+  </si>
+  <si>
+    <t>775-RBI-EI-DB-DL-REC-NON-RNI-CTRFD-SAR-MD-TR-1-Late Repayment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -136,6 +181,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="5">
@@ -176,14 +226,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -192,19 +239,34 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -225,13 +287,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -265,13 +327,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -305,13 +367,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -345,13 +407,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -385,13 +447,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -425,13 +487,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -465,13 +527,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -793,8 +855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -805,7 +867,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -815,13 +877,13 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>22</v>
+      <c r="B2" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="3">
         <v>42005</v>
@@ -836,10 +898,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="12">
+      <c r="A5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="8">
         <v>10000</v>
       </c>
     </row>
@@ -860,7 +922,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="2">
@@ -869,7 +931,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>14</v>
@@ -877,7 +939,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>4</v>
@@ -893,15 +955,15 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
@@ -917,10 +979,10 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -931,10 +993,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD7"/>
+      <selection activeCell="A9" sqref="A9:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -944,105 +1006,124 @@
     <col min="5" max="6" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="9">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="11">
         <v>10000</v>
       </c>
-      <c r="B2" s="4">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="9">
+      <c r="B2" s="12">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11">
         <v>10000</v>
       </c>
-      <c r="F2" s="10">
-        <v>2367.27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>710.36</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
-        <v>710.36</v>
-      </c>
-      <c r="F3" s="4">
-        <v>295.89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>0</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>0</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
+      <c r="F2" s="13">
+        <v>1581.47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="12">
+        <v>685.07</v>
+      </c>
+      <c r="B3" s="12">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12">
+        <v>0</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0</v>
+      </c>
+      <c r="E3" s="12">
+        <v>685.07</v>
+      </c>
+      <c r="F3" s="12">
+        <v>193.97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="12">
+        <v>0</v>
+      </c>
+      <c r="B4" s="12">
+        <v>0</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0</v>
+      </c>
+      <c r="F4" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="12">
+        <v>0</v>
+      </c>
+      <c r="B5" s="12">
+        <v>0</v>
+      </c>
+      <c r="C5" s="12">
+        <v>0</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="10"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="10"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="10"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="10"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1051,10 +1132,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="D19:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1062,707 +1143,685 @@
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="15">
+        <v>42005</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12">
+        <v>0</v>
+      </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="11">
+        <v>10000</v>
+      </c>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12">
+        <v>0</v>
+      </c>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12">
+        <v>0</v>
+      </c>
+      <c r="L2" s="12">
+        <v>0</v>
+      </c>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12">
+        <v>0</v>
+      </c>
+      <c r="P2" s="12"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="12">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12">
+        <v>31</v>
+      </c>
+      <c r="C3" s="15">
+        <v>42036</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12">
+        <v>0</v>
+      </c>
+      <c r="F3" s="12">
+        <v>785.8</v>
+      </c>
+      <c r="G3" s="13">
+        <v>9214.2000000000007</v>
+      </c>
+      <c r="H3" s="12">
+        <v>101.92</v>
+      </c>
+      <c r="I3" s="12">
+        <v>0</v>
+      </c>
+      <c r="J3" s="12">
+        <v>0</v>
+      </c>
+      <c r="K3" s="12">
+        <v>887.72</v>
+      </c>
+      <c r="L3" s="12">
+        <v>0</v>
+      </c>
+      <c r="M3" s="12">
+        <v>0</v>
+      </c>
+      <c r="N3" s="12">
+        <v>0</v>
+      </c>
+      <c r="O3" s="12">
+        <v>0</v>
+      </c>
+      <c r="P3" s="12">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="12">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12">
+        <v>28</v>
+      </c>
+      <c r="C4" s="15">
+        <v>42064</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12">
+        <v>0</v>
+      </c>
+      <c r="F4" s="12">
+        <v>795.67</v>
+      </c>
+      <c r="G4" s="13">
+        <v>8418.5300000000007</v>
+      </c>
+      <c r="H4" s="12">
+        <v>92.05</v>
+      </c>
+      <c r="I4" s="12">
+        <v>0</v>
+      </c>
+      <c r="J4" s="12">
+        <v>0</v>
+      </c>
+      <c r="K4" s="12">
+        <v>887.72</v>
+      </c>
+      <c r="L4" s="12">
+        <v>0</v>
+      </c>
+      <c r="M4" s="12">
+        <v>0</v>
+      </c>
+      <c r="N4" s="12">
+        <v>0</v>
+      </c>
+      <c r="O4" s="12">
+        <v>0</v>
+      </c>
+      <c r="P4" s="12">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="12">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12">
+        <v>31</v>
+      </c>
+      <c r="C5" s="15">
+        <v>42095</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12">
+        <v>0</v>
+      </c>
+      <c r="F5" s="12">
+        <v>785.8</v>
+      </c>
+      <c r="G5" s="13">
+        <v>7632.73</v>
+      </c>
+      <c r="H5" s="12">
+        <v>101.92</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0</v>
+      </c>
+      <c r="K5" s="12">
+        <v>887.72</v>
+      </c>
+      <c r="L5" s="12">
+        <v>0</v>
+      </c>
+      <c r="M5" s="12">
+        <v>0</v>
+      </c>
+      <c r="N5" s="12">
+        <v>0</v>
+      </c>
+      <c r="O5" s="12">
+        <v>0</v>
+      </c>
+      <c r="P5" s="12">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="12">
+        <v>4</v>
+      </c>
+      <c r="B6" s="12">
+        <v>30</v>
+      </c>
+      <c r="C6" s="15">
+        <v>42125</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12">
+        <v>0</v>
+      </c>
+      <c r="F6" s="12">
+        <v>812.44</v>
+      </c>
+      <c r="G6" s="13">
+        <v>6820.29</v>
+      </c>
+      <c r="H6" s="12">
+        <v>75.28</v>
+      </c>
+      <c r="I6" s="12">
+        <v>0</v>
+      </c>
+      <c r="J6" s="12">
+        <v>0</v>
+      </c>
+      <c r="K6" s="12">
+        <v>887.72</v>
+      </c>
+      <c r="L6" s="12">
+        <v>0</v>
+      </c>
+      <c r="M6" s="12">
+        <v>0</v>
+      </c>
+      <c r="N6" s="12">
+        <v>0</v>
+      </c>
+      <c r="O6" s="12">
+        <v>0</v>
+      </c>
+      <c r="P6" s="12">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="12">
+        <v>5</v>
+      </c>
+      <c r="B7" s="12">
+        <v>31</v>
+      </c>
+      <c r="C7" s="15">
+        <v>42156</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12">
+        <v>0</v>
+      </c>
+      <c r="F7" s="12">
+        <v>818.21</v>
+      </c>
+      <c r="G7" s="13">
+        <v>6002.08</v>
+      </c>
+      <c r="H7" s="12">
+        <v>69.510000000000005</v>
+      </c>
+      <c r="I7" s="12">
+        <v>0</v>
+      </c>
+      <c r="J7" s="12">
+        <v>0</v>
+      </c>
+      <c r="K7" s="12">
+        <v>887.72</v>
+      </c>
+      <c r="L7" s="12">
+        <v>0</v>
+      </c>
+      <c r="M7" s="12">
+        <v>0</v>
+      </c>
+      <c r="N7" s="12">
+        <v>0</v>
+      </c>
+      <c r="O7" s="12">
+        <v>0</v>
+      </c>
+      <c r="P7" s="12">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="12">
+        <v>6</v>
+      </c>
+      <c r="B8" s="12">
+        <v>30</v>
+      </c>
+      <c r="C8" s="15">
+        <v>42186</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12">
+        <v>0</v>
+      </c>
+      <c r="F8" s="12">
+        <v>828.52</v>
+      </c>
+      <c r="G8" s="13">
+        <v>5173.5600000000004</v>
+      </c>
+      <c r="H8" s="12">
+        <v>59.2</v>
+      </c>
+      <c r="I8" s="12">
+        <v>0</v>
+      </c>
+      <c r="J8" s="12">
+        <v>0</v>
+      </c>
+      <c r="K8" s="12">
+        <v>887.72</v>
+      </c>
+      <c r="L8" s="12">
+        <v>0</v>
+      </c>
+      <c r="M8" s="12">
+        <v>0</v>
+      </c>
+      <c r="N8" s="12">
+        <v>0</v>
+      </c>
+      <c r="O8" s="12">
+        <v>0</v>
+      </c>
+      <c r="P8" s="12">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="12">
+        <v>7</v>
+      </c>
+      <c r="B9" s="12">
+        <v>31</v>
+      </c>
+      <c r="C9" s="15">
+        <v>42217</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12">
+        <v>0</v>
+      </c>
+      <c r="F9" s="12">
+        <v>834.99</v>
+      </c>
+      <c r="G9" s="13">
+        <v>4338.57</v>
+      </c>
+      <c r="H9" s="12">
+        <v>52.73</v>
+      </c>
+      <c r="I9" s="12">
+        <v>0</v>
+      </c>
+      <c r="J9" s="12">
+        <v>0</v>
+      </c>
+      <c r="K9" s="12">
+        <v>887.72</v>
+      </c>
+      <c r="L9" s="12">
+        <v>0</v>
+      </c>
+      <c r="M9" s="12">
+        <v>0</v>
+      </c>
+      <c r="N9" s="12">
+        <v>0</v>
+      </c>
+      <c r="O9" s="12">
+        <v>0</v>
+      </c>
+      <c r="P9" s="12">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="12">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4">
-        <v>0</v>
-      </c>
-      <c r="C2" s="11">
-        <v>42005</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0</v>
-      </c>
-      <c r="G2" s="9">
-        <v>10000</v>
-      </c>
-      <c r="H2" s="4">
-        <v>0</v>
-      </c>
-      <c r="I2" s="4">
-        <v>0</v>
-      </c>
-      <c r="J2" s="4">
-        <v>0</v>
-      </c>
-      <c r="K2" s="4">
-        <v>0</v>
-      </c>
-      <c r="L2" s="4">
-        <v>0</v>
-      </c>
-      <c r="M2" s="4">
-        <v>0</v>
-      </c>
-      <c r="N2" s="4">
-        <v>0</v>
-      </c>
-      <c r="O2" s="4">
-        <v>0</v>
-      </c>
-      <c r="P2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4">
+      <c r="B10" s="12">
         <v>31</v>
       </c>
-      <c r="C3" s="11">
-        <v>42036</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4">
-        <v>785.8</v>
-      </c>
-      <c r="G3" s="10">
-        <v>9214.2000000000007</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4">
-        <v>0</v>
-      </c>
-      <c r="J3" s="4">
-        <v>0</v>
-      </c>
-      <c r="K3" s="4">
-        <v>785.8</v>
-      </c>
-      <c r="L3" s="4">
-        <v>0</v>
-      </c>
-      <c r="M3" s="4">
-        <v>0</v>
-      </c>
-      <c r="N3" s="4">
-        <v>0</v>
-      </c>
-      <c r="O3" s="4">
-        <v>0</v>
-      </c>
-      <c r="P3" s="4">
-        <v>785.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4">
-        <v>28</v>
-      </c>
-      <c r="C4" s="11">
-        <v>42064</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>795.67</v>
-      </c>
-      <c r="G4" s="10">
-        <v>8418.5300000000007</v>
-      </c>
-      <c r="H4" s="4">
-        <v>193.97</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
-        <v>0</v>
-      </c>
-      <c r="K4" s="4">
-        <v>989.64</v>
-      </c>
-      <c r="L4" s="4">
-        <v>0</v>
-      </c>
-      <c r="M4" s="4">
-        <v>0</v>
-      </c>
-      <c r="N4" s="4">
-        <v>0</v>
-      </c>
-      <c r="O4" s="4">
-        <v>0</v>
-      </c>
-      <c r="P4" s="4">
-        <v>989.64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4">
+      <c r="C10" s="15">
+        <v>42248</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12">
+        <v>0</v>
+      </c>
+      <c r="F10" s="12">
+        <v>843.5</v>
+      </c>
+      <c r="G10" s="13">
+        <v>3495.07</v>
+      </c>
+      <c r="H10" s="12">
+        <v>44.22</v>
+      </c>
+      <c r="I10" s="12">
+        <v>0</v>
+      </c>
+      <c r="J10" s="12">
+        <v>0</v>
+      </c>
+      <c r="K10" s="12">
+        <v>887.72</v>
+      </c>
+      <c r="L10" s="12">
+        <v>0</v>
+      </c>
+      <c r="M10" s="12">
+        <v>0</v>
+      </c>
+      <c r="N10" s="12">
+        <v>0</v>
+      </c>
+      <c r="O10" s="12">
+        <v>0</v>
+      </c>
+      <c r="P10" s="12">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="12">
+        <v>9</v>
+      </c>
+      <c r="B11" s="12">
+        <v>30</v>
+      </c>
+      <c r="C11" s="15">
+        <v>42278</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12">
+        <v>0</v>
+      </c>
+      <c r="F11" s="12">
+        <v>853.25</v>
+      </c>
+      <c r="G11" s="13">
+        <v>2641.82</v>
+      </c>
+      <c r="H11" s="12">
+        <v>34.47</v>
+      </c>
+      <c r="I11" s="12">
+        <v>0</v>
+      </c>
+      <c r="J11" s="12">
+        <v>0</v>
+      </c>
+      <c r="K11" s="12">
+        <v>887.72</v>
+      </c>
+      <c r="L11" s="12">
+        <v>0</v>
+      </c>
+      <c r="M11" s="12">
+        <v>0</v>
+      </c>
+      <c r="N11" s="12">
+        <v>0</v>
+      </c>
+      <c r="O11" s="12">
+        <v>0</v>
+      </c>
+      <c r="P11" s="12">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="12">
         <v>31</v>
       </c>
-      <c r="C5" s="11">
-        <v>42095</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>785.8</v>
-      </c>
-      <c r="G5" s="10">
-        <v>7632.73</v>
-      </c>
-      <c r="H5" s="4">
-        <v>101.92</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0</v>
-      </c>
-      <c r="K5" s="4">
-        <v>887.72</v>
-      </c>
-      <c r="L5" s="4">
-        <v>0</v>
-      </c>
-      <c r="M5" s="4">
-        <v>0</v>
-      </c>
-      <c r="N5" s="4">
-        <v>0</v>
-      </c>
-      <c r="O5" s="4">
-        <v>0</v>
-      </c>
-      <c r="P5" s="4">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4">
+      <c r="C12" s="15">
+        <v>42309</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="12">
+        <v>860.8</v>
+      </c>
+      <c r="G12" s="13">
+        <v>1781.02</v>
+      </c>
+      <c r="H12" s="12">
+        <v>26.92</v>
+      </c>
+      <c r="I12" s="12">
+        <v>0</v>
+      </c>
+      <c r="J12" s="12">
+        <v>0</v>
+      </c>
+      <c r="K12" s="12">
+        <v>887.72</v>
+      </c>
+      <c r="L12" s="12">
+        <v>0</v>
+      </c>
+      <c r="M12" s="12">
+        <v>0</v>
+      </c>
+      <c r="N12" s="12">
+        <v>0</v>
+      </c>
+      <c r="O12" s="12">
+        <v>0</v>
+      </c>
+      <c r="P12" s="12">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="12">
+        <v>11</v>
+      </c>
+      <c r="B13" s="12">
         <v>30</v>
       </c>
-      <c r="C6" s="11">
-        <v>42125</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
-        <v>789.09</v>
-      </c>
-      <c r="G6" s="10">
-        <v>6843.64</v>
-      </c>
-      <c r="H6" s="4">
-        <v>98.63</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4">
-        <v>0</v>
-      </c>
-      <c r="K6" s="4">
-        <v>887.72</v>
-      </c>
-      <c r="L6" s="4">
-        <v>0</v>
-      </c>
-      <c r="M6" s="4">
-        <v>0</v>
-      </c>
-      <c r="N6" s="4">
-        <v>0</v>
-      </c>
-      <c r="O6" s="4">
-        <v>0</v>
-      </c>
-      <c r="P6" s="4">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4">
+      <c r="C13" s="15">
+        <v>42339</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12">
+        <v>0</v>
+      </c>
+      <c r="F13" s="12">
+        <v>870.15</v>
+      </c>
+      <c r="G13" s="12">
+        <v>910.87</v>
+      </c>
+      <c r="H13" s="12">
+        <v>17.57</v>
+      </c>
+      <c r="I13" s="12">
+        <v>0</v>
+      </c>
+      <c r="J13" s="12">
+        <v>0</v>
+      </c>
+      <c r="K13" s="12">
+        <v>887.72</v>
+      </c>
+      <c r="L13" s="12">
+        <v>0</v>
+      </c>
+      <c r="M13" s="12">
+        <v>0</v>
+      </c>
+      <c r="N13" s="12">
+        <v>0</v>
+      </c>
+      <c r="O13" s="12">
+        <v>0</v>
+      </c>
+      <c r="P13" s="12">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="12">
+        <v>12</v>
+      </c>
+      <c r="B14" s="12">
         <v>31</v>
       </c>
-      <c r="C7" s="11">
-        <v>42156</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
-        <v>817.97</v>
-      </c>
-      <c r="G7" s="10">
-        <v>6025.67</v>
-      </c>
-      <c r="H7" s="4">
-        <v>69.75</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
-        <v>0</v>
-      </c>
-      <c r="K7" s="4">
-        <v>887.72</v>
-      </c>
-      <c r="L7" s="4">
-        <v>0</v>
-      </c>
-      <c r="M7" s="4">
-        <v>0</v>
-      </c>
-      <c r="N7" s="4">
-        <v>0</v>
-      </c>
-      <c r="O7" s="4">
-        <v>0</v>
-      </c>
-      <c r="P7" s="4">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4">
-        <v>30</v>
-      </c>
-      <c r="C8" s="11">
-        <v>42186</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4">
-        <v>828.29</v>
-      </c>
-      <c r="G8" s="10">
-        <v>5197.38</v>
-      </c>
-      <c r="H8" s="4">
-        <v>59.43</v>
-      </c>
-      <c r="I8" s="4">
-        <v>0</v>
-      </c>
-      <c r="J8" s="4">
-        <v>0</v>
-      </c>
-      <c r="K8" s="4">
-        <v>887.72</v>
-      </c>
-      <c r="L8" s="4">
-        <v>0</v>
-      </c>
-      <c r="M8" s="4">
-        <v>0</v>
-      </c>
-      <c r="N8" s="4">
-        <v>0</v>
-      </c>
-      <c r="O8" s="4">
-        <v>0</v>
-      </c>
-      <c r="P8" s="4">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4">
-        <v>31</v>
-      </c>
-      <c r="C9" s="11">
-        <v>42217</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4">
-        <v>834.75</v>
-      </c>
-      <c r="G9" s="10">
-        <v>4362.63</v>
-      </c>
-      <c r="H9" s="4">
-        <v>52.97</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
-        <v>0</v>
-      </c>
-      <c r="K9" s="4">
-        <v>887.72</v>
-      </c>
-      <c r="L9" s="4">
-        <v>0</v>
-      </c>
-      <c r="M9" s="4">
-        <v>0</v>
-      </c>
-      <c r="N9" s="4">
-        <v>0</v>
-      </c>
-      <c r="O9" s="4">
-        <v>0</v>
-      </c>
-      <c r="P9" s="4">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4">
-        <v>31</v>
-      </c>
-      <c r="C10" s="11">
-        <v>42248</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4">
-        <v>843.26</v>
-      </c>
-      <c r="G10" s="10">
-        <v>3519.37</v>
-      </c>
-      <c r="H10" s="4">
-        <v>44.46</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0</v>
-      </c>
-      <c r="J10" s="4">
-        <v>0</v>
-      </c>
-      <c r="K10" s="4">
-        <v>887.72</v>
-      </c>
-      <c r="L10" s="4">
-        <v>0</v>
-      </c>
-      <c r="M10" s="4">
-        <v>0</v>
-      </c>
-      <c r="N10" s="4">
-        <v>0</v>
-      </c>
-      <c r="O10" s="4">
-        <v>0</v>
-      </c>
-      <c r="P10" s="4">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4">
-        <v>30</v>
-      </c>
-      <c r="C11" s="11">
-        <v>42278</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4">
-        <v>853.01</v>
-      </c>
-      <c r="G11" s="10">
-        <v>2666.36</v>
-      </c>
-      <c r="H11" s="4">
-        <v>34.71</v>
-      </c>
-      <c r="I11" s="4">
-        <v>0</v>
-      </c>
-      <c r="J11" s="4">
-        <v>0</v>
-      </c>
-      <c r="K11" s="4">
-        <v>887.72</v>
-      </c>
-      <c r="L11" s="4">
-        <v>0</v>
-      </c>
-      <c r="M11" s="4">
-        <v>0</v>
-      </c>
-      <c r="N11" s="4">
-        <v>0</v>
-      </c>
-      <c r="O11" s="4">
-        <v>0</v>
-      </c>
-      <c r="P11" s="4">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4">
-        <v>31</v>
-      </c>
-      <c r="C12" s="11">
-        <v>42309</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4">
-        <v>860.55</v>
-      </c>
-      <c r="G12" s="10">
-        <v>1805.81</v>
-      </c>
-      <c r="H12" s="4">
-        <v>27.17</v>
-      </c>
-      <c r="I12" s="4">
-        <v>0</v>
-      </c>
-      <c r="J12" s="4">
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
-        <v>887.72</v>
-      </c>
-      <c r="L12" s="4">
-        <v>0</v>
-      </c>
-      <c r="M12" s="4">
-        <v>0</v>
-      </c>
-      <c r="N12" s="4">
-        <v>0</v>
-      </c>
-      <c r="O12" s="4">
-        <v>0</v>
-      </c>
-      <c r="P12" s="4">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4">
-        <v>30</v>
-      </c>
-      <c r="C13" s="11">
-        <v>42339</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13" s="4">
-        <v>869.91</v>
-      </c>
-      <c r="G13" s="4">
-        <v>935.9</v>
-      </c>
-      <c r="H13" s="4">
-        <v>17.809999999999999</v>
-      </c>
-      <c r="I13" s="4">
-        <v>0</v>
-      </c>
-      <c r="J13" s="4">
-        <v>0</v>
-      </c>
-      <c r="K13" s="4">
-        <v>887.72</v>
-      </c>
-      <c r="L13" s="4">
-        <v>0</v>
-      </c>
-      <c r="M13" s="4">
-        <v>0</v>
-      </c>
-      <c r="N13" s="4">
-        <v>0</v>
-      </c>
-      <c r="O13" s="4">
-        <v>0</v>
-      </c>
-      <c r="P13" s="4">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
-        <v>12</v>
-      </c>
-      <c r="B14" s="4">
-        <v>31</v>
-      </c>
-      <c r="C14" s="11">
+      <c r="C14" s="15">
         <v>42370</v>
       </c>
-      <c r="D14" s="4">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14" s="4">
-        <v>935.9</v>
-      </c>
-      <c r="G14" s="4">
-        <v>0</v>
-      </c>
-      <c r="H14" s="4">
-        <v>9.5399999999999991</v>
-      </c>
-      <c r="I14" s="4">
-        <v>0</v>
-      </c>
-      <c r="J14" s="4">
-        <v>0</v>
-      </c>
-      <c r="K14" s="4">
-        <v>945.44</v>
-      </c>
-      <c r="L14" s="4">
-        <v>0</v>
-      </c>
-      <c r="M14" s="4">
-        <v>0</v>
-      </c>
-      <c r="N14" s="4">
-        <v>0</v>
-      </c>
-      <c r="O14" s="4">
-        <v>0</v>
-      </c>
-      <c r="P14" s="4">
-        <v>945.44</v>
-      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12">
+        <v>0</v>
+      </c>
+      <c r="F14" s="12">
+        <v>910.87</v>
+      </c>
+      <c r="G14" s="12">
+        <v>0</v>
+      </c>
+      <c r="H14" s="12">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="I14" s="12">
+        <v>0</v>
+      </c>
+      <c r="J14" s="12">
+        <v>0</v>
+      </c>
+      <c r="K14" s="12">
+        <v>920.15</v>
+      </c>
+      <c r="L14" s="12">
+        <v>0</v>
+      </c>
+      <c r="M14" s="12">
+        <v>0</v>
+      </c>
+      <c r="N14" s="12">
+        <v>0</v>
+      </c>
+      <c r="O14" s="12">
+        <v>0</v>
+      </c>
+      <c r="P14" s="12">
+        <v>920.15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="P15" s="14"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C15:E15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -1808,7 +1867,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="2">
@@ -1832,7 +1891,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="2">
@@ -1856,7 +1915,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="2">
@@ -1893,7 +1952,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="2">
@@ -1912,7 +1971,7 @@
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="7">
         <v>12</v>
       </c>
     </row>
@@ -1941,7 +2000,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="2">

--- a/Mifos Automation Excels/Client/775-RBI-EI-DB-DL-REC-NON-RNI-CTRFD-SAR-MD-TR-1-Late Repayment-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/775-RBI-EI-DB-DL-REC-NON-RNI-CTRFD-SAR-MD-TR-1-Late Repayment-Newcreateloan.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="9" r:id="rId1"/>
@@ -166,7 +171,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -268,6 +273,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -289,7 +297,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4097" name="Picture 1" descr="https://secure.adnxs.com/seg?add=2735784&amp;t=2?"/>
+        <xdr:cNvPr id="4097" name="Picture 1" descr="https://secure.adnxs.com/seg?add=2735784&amp;t=2?">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001100000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -329,7 +343,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4098" name="Picture 2" descr="https://secure.adnxs.com/seg?add=2735784&amp;t=2?"/>
+        <xdr:cNvPr id="4098" name="Picture 2" descr="https://secure.adnxs.com/seg?add=2735784&amp;t=2?">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002100000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -369,7 +389,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4099" name="Picture 3" descr="https://secure.adnxs.com/seg?add=2735784&amp;t=2?"/>
+        <xdr:cNvPr id="4099" name="Picture 3" descr="https://secure.adnxs.com/seg?add=2735784&amp;t=2?">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003100000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -409,7 +435,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4100" name="Picture 4" descr="http://fp114.digitaloptout.com/acttr?p=YTIxNDQ4Nzg1NjZ9BohYE9sYS8No21fUjjen5BSqNleXWBKW6lASeRB%2BS%2FAIRM6QUsXgoMbirFvVAgJZpPMWKHrHtcvusGfRBaxlOKBiPo0l2IMnDdvDVl6Uk6kStHnC1CWwoQ7IyBRQCkfbTu6ome%2FdZSpgeB7lFOKF4ymMyhsOgZJBxsSC45Ph2A%3D%3D&amp;m=FP14_%3A_already-injected_%3A_FP39_%3A_FP14&amp;t=1429973261769"/>
+        <xdr:cNvPr id="4100" name="Picture 4" descr="http://fp114.digitaloptout.com/acttr?p=YTIxNDQ4Nzg1NjZ9BohYE9sYS8No21fUjjen5BSqNleXWBKW6lASeRB%2BS%2FAIRM6QUsXgoMbirFvVAgJZpPMWKHrHtcvusGfRBaxlOKBiPo0l2IMnDdvDVl6Uk6kStHnC1CWwoQ7IyBRQCkfbTu6ome%2FdZSpgeB7lFOKF4ymMyhsOgZJBxsSC45Ph2A%3D%3D&amp;m=FP14_%3A_already-injected_%3A_FP39_%3A_FP14&amp;t=1429973261769">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004100000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -449,7 +481,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4101" name="Picture 5" descr="http://fp114.digitaloptout.com/acttr?p=YTIxNDQ4Nzg1NjZ9BohYE9sYS8No21fUjjen5BSqNleXWBKW6lASeRB%2BS%2FAIRM6QUsXgoMbirFvVAgJZpPMWKHrHtcvusGfRBaxlOKBiPo0l2IMnDdvDVl6Uk6kStHnC1CWwoQ7IyBRQCkfbTu6ome%2FdZSpgeB7lFOKF4ymMyhsOgZJBxsSC45Ph2A%3D%3D&amp;m=FP14_%3A_already-injected_%3A_FP39_%3A_FP14&amp;t=1429973261942"/>
+        <xdr:cNvPr id="4101" name="Picture 5" descr="http://fp114.digitaloptout.com/acttr?p=YTIxNDQ4Nzg1NjZ9BohYE9sYS8No21fUjjen5BSqNleXWBKW6lASeRB%2BS%2FAIRM6QUsXgoMbirFvVAgJZpPMWKHrHtcvusGfRBaxlOKBiPo0l2IMnDdvDVl6Uk6kStHnC1CWwoQ7IyBRQCkfbTu6ome%2FdZSpgeB7lFOKF4ymMyhsOgZJBxsSC45Ph2A%3D%3D&amp;m=FP14_%3A_already-injected_%3A_FP39_%3A_FP14&amp;t=1429973261942">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005100000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -489,7 +527,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4102" name="Picture 6" descr="http://fp114.digitaloptout.com/acttr?p=YTIxNDQ4Nzg1NjZ9BohYE9sYS8No21fUjjen5BSqNleXWBKW6lASeRB%2BS%2FAIRM6QUsXgoMbirFvVAgJZpPMWKHrHtcvusGfRBaxlOKBiPo0l2IMnDdvDVl6Uk6kStHnC1CWwoQ7IyBRQCkfbTu6ome%2FdZSpgeB7lFOKF4ymMyhsOgZJBxsSC45Ph2A%3D%3D&amp;m=FP14_%3A_already-injected_%3A_FP39_%3A_FP14&amp;t=1429973261946"/>
+        <xdr:cNvPr id="4102" name="Picture 6" descr="http://fp114.digitaloptout.com/acttr?p=YTIxNDQ4Nzg1NjZ9BohYE9sYS8No21fUjjen5BSqNleXWBKW6lASeRB%2BS%2FAIRM6QUsXgoMbirFvVAgJZpPMWKHrHtcvusGfRBaxlOKBiPo0l2IMnDdvDVl6Uk6kStHnC1CWwoQ7IyBRQCkfbTu6ome%2FdZSpgeB7lFOKF4ymMyhsOgZJBxsSC45Ph2A%3D%3D&amp;m=FP14_%3A_already-injected_%3A_FP39_%3A_FP14&amp;t=1429973261946">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006100000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -529,7 +573,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4103" name="fixStatusImg" descr="http://partners.cmptch.com/images/1x1.gif"/>
+        <xdr:cNvPr id="4103" name="fixStatusImg" descr="http://partners.cmptch.com/images/1x1.gif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007100000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -600,7 +650,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -633,9 +683,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -668,6 +735,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -846,7 +930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -1102,10 +1186,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView topLeftCell="F2" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1113,7 +1197,7 @@
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>35</v>
       </c>
@@ -1153,17 +1237,18 @@
       <c r="M1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="10"/>
+      <c r="O1" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="12"/>
       <c r="B2" s="12"/>
       <c r="C2" s="14">
@@ -1190,12 +1275,13 @@
       </c>
       <c r="M2" s="12"/>
       <c r="N2" s="12"/>
-      <c r="O2" s="12">
-        <v>0</v>
-      </c>
-      <c r="P2" s="12"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O2" s="12"/>
+      <c r="P2" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="12"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -1233,17 +1319,18 @@
       <c r="M3" s="12">
         <v>0</v>
       </c>
-      <c r="N3" s="12">
-        <v>0</v>
-      </c>
+      <c r="N3" s="12"/>
       <c r="O3" s="12">
         <v>0</v>
       </c>
       <c r="P3" s="12">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="12">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
         <v>2</v>
       </c>
@@ -1281,17 +1368,18 @@
       <c r="M4" s="12">
         <v>0</v>
       </c>
-      <c r="N4" s="12">
-        <v>0</v>
-      </c>
+      <c r="N4" s="12"/>
       <c r="O4" s="12">
         <v>0</v>
       </c>
       <c r="P4" s="12">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="12">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <v>3</v>
       </c>
@@ -1329,17 +1417,18 @@
       <c r="M5" s="12">
         <v>0</v>
       </c>
-      <c r="N5" s="12">
-        <v>0</v>
-      </c>
+      <c r="N5" s="12"/>
       <c r="O5" s="12">
         <v>0</v>
       </c>
       <c r="P5" s="12">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="12">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
         <v>4</v>
       </c>
@@ -1377,17 +1466,18 @@
       <c r="M6" s="12">
         <v>0</v>
       </c>
-      <c r="N6" s="12">
-        <v>0</v>
-      </c>
+      <c r="N6" s="12"/>
       <c r="O6" s="12">
         <v>0</v>
       </c>
       <c r="P6" s="12">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="12">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
         <v>5</v>
       </c>
@@ -1425,17 +1515,18 @@
       <c r="M7" s="12">
         <v>0</v>
       </c>
-      <c r="N7" s="12">
-        <v>0</v>
-      </c>
+      <c r="N7" s="12"/>
       <c r="O7" s="12">
         <v>0</v>
       </c>
       <c r="P7" s="12">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="12">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
         <v>6</v>
       </c>
@@ -1473,17 +1564,18 @@
       <c r="M8" s="12">
         <v>0</v>
       </c>
-      <c r="N8" s="12">
-        <v>0</v>
-      </c>
+      <c r="N8" s="12"/>
       <c r="O8" s="12">
         <v>0</v>
       </c>
       <c r="P8" s="12">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="12">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <v>7</v>
       </c>
@@ -1521,17 +1613,18 @@
       <c r="M9" s="12">
         <v>0</v>
       </c>
-      <c r="N9" s="12">
-        <v>0</v>
-      </c>
+      <c r="N9" s="12"/>
       <c r="O9" s="12">
         <v>0</v>
       </c>
       <c r="P9" s="12">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="12">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <v>8</v>
       </c>
@@ -1569,17 +1662,18 @@
       <c r="M10" s="12">
         <v>0</v>
       </c>
-      <c r="N10" s="12">
-        <v>0</v>
-      </c>
+      <c r="N10" s="12"/>
       <c r="O10" s="12">
         <v>0</v>
       </c>
       <c r="P10" s="12">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="12">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
         <v>9</v>
       </c>
@@ -1617,17 +1711,18 @@
       <c r="M11" s="12">
         <v>0</v>
       </c>
-      <c r="N11" s="12">
-        <v>0</v>
-      </c>
+      <c r="N11" s="12"/>
       <c r="O11" s="12">
         <v>0</v>
       </c>
       <c r="P11" s="12">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="12">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
         <v>10</v>
       </c>
@@ -1665,17 +1760,18 @@
       <c r="M12" s="12">
         <v>0</v>
       </c>
-      <c r="N12" s="12">
-        <v>0</v>
-      </c>
+      <c r="N12" s="12"/>
       <c r="O12" s="12">
         <v>0</v>
       </c>
       <c r="P12" s="12">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="12">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
         <v>11</v>
       </c>
@@ -1713,17 +1809,18 @@
       <c r="M13" s="12">
         <v>0</v>
       </c>
-      <c r="N13" s="12">
-        <v>0</v>
-      </c>
+      <c r="N13" s="12"/>
       <c r="O13" s="12">
         <v>0</v>
       </c>
       <c r="P13" s="12">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="12">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
         <v>12</v>
       </c>
@@ -1761,13 +1858,14 @@
       <c r="M14" s="12">
         <v>0</v>
       </c>
-      <c r="N14" s="12">
-        <v>0</v>
-      </c>
+      <c r="N14" s="12"/>
       <c r="O14" s="12">
         <v>0</v>
       </c>
       <c r="P14" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="12">
         <v>920.15</v>
       </c>
     </row>
